--- a/Data Analysis/Boost and Etho/All Clusters In Dataset/A3.xlsx
+++ b/Data Analysis/Boost and Etho/All Clusters In Dataset/A3.xlsx
@@ -13,96 +13,735 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="245">
   <si>
     <t>clusterLabels</t>
   </si>
   <si>
-    <t>aladdin 11-11-2022.mat</t>
-  </si>
-  <si>
-    <t>aladdin 11-15-2022.mat</t>
-  </si>
-  <si>
-    <t>aladdin 11-16-2022.mat</t>
-  </si>
-  <si>
-    <t>aladdin 11-28-2022.mat</t>
-  </si>
-  <si>
-    <t>alexis 01-13-2023.mat</t>
-  </si>
-  <si>
-    <t>alexis 01-23-2023.mat</t>
-  </si>
-  <si>
-    <t>alexis 01-30-2023.mat</t>
-  </si>
-  <si>
-    <t>alexis 02-01-2023.mat</t>
-  </si>
-  <si>
-    <t>alexis 02-08-2023.mat</t>
-  </si>
-  <si>
-    <t>alexis 12-16-2022.mat</t>
-  </si>
-  <si>
-    <t>jimi 02-16-2023.mat</t>
-  </si>
-  <si>
-    <t>jimi 11-16-2022.mat</t>
-  </si>
-  <si>
-    <t>jr 11-30-2022.mat</t>
-  </si>
-  <si>
-    <t>kryssia 02-08-2023.mat</t>
-  </si>
-  <si>
-    <t>kryssia 02-15-2023.mat</t>
-  </si>
-  <si>
-    <t>kryssia 11-03-2022.mat</t>
-  </si>
-  <si>
-    <t>kryssia 11-08-2022.mat</t>
-  </si>
-  <si>
-    <t>kryssia 12-21-2022.mat</t>
-  </si>
-  <si>
-    <t>renata 01-20-2023.mat</t>
-  </si>
-  <si>
-    <t>renata 02-01-2023.mat</t>
-  </si>
-  <si>
-    <t>renata 02-08-2023.mat</t>
-  </si>
-  <si>
-    <t>renata 02-15-2023.mat</t>
-  </si>
-  <si>
-    <t>sarah 12-16-2022.mat</t>
-  </si>
-  <si>
-    <t>scar 01-16-2023.mat</t>
-  </si>
-  <si>
-    <t>scar 11-21-2022.mat</t>
-  </si>
-  <si>
-    <t>scar 11-22-2022.mat</t>
-  </si>
-  <si>
-    <t>shakira 12-08-2022.mat</t>
-  </si>
-  <si>
-    <t>shakira 12-16-2022.mat</t>
-  </si>
-  <si>
-    <t>sully 12-22-2022.mat</t>
+    <t>aladdin 01-05-2023.mat</t>
+  </si>
+  <si>
+    <t>aladdin 02-09-2023.mat</t>
+  </si>
+  <si>
+    <t>aladdin 11-02-2022.mat</t>
+  </si>
+  <si>
+    <t>aladdin 11-04-2022.mat</t>
+  </si>
+  <si>
+    <t>aladdin 11-07-2022.mat</t>
+  </si>
+  <si>
+    <t>aladdin 11-08-2022.mat</t>
+  </si>
+  <si>
+    <t>aladdin 11-10-2022.mat</t>
+  </si>
+  <si>
+    <t>aladdin 11-21-2022.mat</t>
+  </si>
+  <si>
+    <t>aladdin 11-23-2022.mat</t>
+  </si>
+  <si>
+    <t>aladdin 11-29-2022.mat</t>
+  </si>
+  <si>
+    <t>aladdin 11-30-2022.mat</t>
+  </si>
+  <si>
+    <t>aladdin 12-12-2022.mat</t>
+  </si>
+  <si>
+    <t>aladdin 12-17-2022.mat</t>
+  </si>
+  <si>
+    <t>alexis 01-04-2023.mat</t>
+  </si>
+  <si>
+    <t>alexis 01-27-2023.mat</t>
+  </si>
+  <si>
+    <t>alexis 02-13-2023.mat</t>
+  </si>
+  <si>
+    <t>alexis 11-03-2022.mat</t>
+  </si>
+  <si>
+    <t>alexis 11-09-2022.mat</t>
+  </si>
+  <si>
+    <t>alexis 11-17-2022.mat</t>
+  </si>
+  <si>
+    <t>alexis 11-18-2022.mat</t>
+  </si>
+  <si>
+    <t>alexis 11-21-2022.mat</t>
+  </si>
+  <si>
+    <t>alexis 11-22-2022.mat</t>
+  </si>
+  <si>
+    <t>alexis 11-29-2022.mat</t>
+  </si>
+  <si>
+    <t>carl 01-10-2023.mat</t>
+  </si>
+  <si>
+    <t>carl 01-12-2023.mat</t>
+  </si>
+  <si>
+    <t>carl 01-18-2023.mat</t>
+  </si>
+  <si>
+    <t>carl 01-24-2023.mat</t>
+  </si>
+  <si>
+    <t>carl 02-09-2023.mat</t>
+  </si>
+  <si>
+    <t>carl 02-16-2023.mat</t>
+  </si>
+  <si>
+    <t>carl 11-08-2022.mat</t>
+  </si>
+  <si>
+    <t>carl 11-10-2022.mat</t>
+  </si>
+  <si>
+    <t>carl 11-15-2022.mat</t>
+  </si>
+  <si>
+    <t>carl 11-16-2022.mat</t>
+  </si>
+  <si>
+    <t>carl 11-21-2022.mat</t>
+  </si>
+  <si>
+    <t>carl 11-22-2022.mat</t>
+  </si>
+  <si>
+    <t>carl 11-29-2022.mat</t>
+  </si>
+  <si>
+    <t>carl 12-12-2022.mat</t>
+  </si>
+  <si>
+    <t>fiona 01-11-2023.mat</t>
+  </si>
+  <si>
+    <t>fiona 01-17-2023.mat</t>
+  </si>
+  <si>
+    <t>fiona 01-19-2023.mat</t>
+  </si>
+  <si>
+    <t>fiona 01-20-2023.mat</t>
+  </si>
+  <si>
+    <t>fiona 01-23-2023.mat</t>
+  </si>
+  <si>
+    <t>fiona 01-30-2023.mat</t>
+  </si>
+  <si>
+    <t>fiona 02-01-2023.mat</t>
+  </si>
+  <si>
+    <t>fiona 02-08-2023.mat</t>
+  </si>
+  <si>
+    <t>fiona 02-15-2023.mat</t>
+  </si>
+  <si>
+    <t>fiona 11-03-2022.mat</t>
+  </si>
+  <si>
+    <t>fiona 11-09-2022.mat</t>
+  </si>
+  <si>
+    <t>fiona 11-15-2022.mat</t>
+  </si>
+  <si>
+    <t>fiona 11-29-2022.mat</t>
+  </si>
+  <si>
+    <t>fiona 12-01-2022.mat</t>
+  </si>
+  <si>
+    <t>fiona 12-08-2022.mat</t>
+  </si>
+  <si>
+    <t>fiona 12-19-2022.mat</t>
+  </si>
+  <si>
+    <t>fiona 12-21-2022.mat</t>
+  </si>
+  <si>
+    <t>harley 01-19-2023.mat</t>
+  </si>
+  <si>
+    <t>harley 01-20-2023.mat</t>
+  </si>
+  <si>
+    <t>harley 01-23-2023.mat</t>
+  </si>
+  <si>
+    <t>harley 02-01-2023.mat</t>
+  </si>
+  <si>
+    <t>harley 11-08-2022.mat</t>
+  </si>
+  <si>
+    <t>harley 11-14-2022.mat</t>
+  </si>
+  <si>
+    <t>harley 11-15-2022.mat</t>
+  </si>
+  <si>
+    <t>harley 12-01-2022.mat</t>
+  </si>
+  <si>
+    <t>jafar 01-05-2023.mat</t>
+  </si>
+  <si>
+    <t>jafar 01-16-2023.mat</t>
+  </si>
+  <si>
+    <t>jafar 02-09-2023.mat</t>
+  </si>
+  <si>
+    <t>jafar 02-15-2023.mat</t>
+  </si>
+  <si>
+    <t>jafar 11-02-2022.mat</t>
+  </si>
+  <si>
+    <t>jafar 11-03-2022.mat</t>
+  </si>
+  <si>
+    <t>jafar 11-08-2022.mat</t>
+  </si>
+  <si>
+    <t>jafar 11-10-2022.mat</t>
+  </si>
+  <si>
+    <t>jafar 11-11-2022.mat</t>
+  </si>
+  <si>
+    <t>jafar 11-16-2022.mat</t>
+  </si>
+  <si>
+    <t>jafar 11-17-2022.mat</t>
+  </si>
+  <si>
+    <t>jafar 11-18-2022.mat</t>
+  </si>
+  <si>
+    <t>jafar 11-23-2022.mat</t>
+  </si>
+  <si>
+    <t>jafar 11-28-2022.mat</t>
+  </si>
+  <si>
+    <t>jafar 11-29-2022.mat</t>
+  </si>
+  <si>
+    <t>jafar 12-02-2022.mat</t>
+  </si>
+  <si>
+    <t>jafar 12-12-2022.mat</t>
+  </si>
+  <si>
+    <t>jimi 01-10-2023.mat</t>
+  </si>
+  <si>
+    <t>jimi 01-26-2023.mat</t>
+  </si>
+  <si>
+    <t>jimi 02-09-2023.mat</t>
+  </si>
+  <si>
+    <t>jimi 11-10-2022.mat</t>
+  </si>
+  <si>
+    <t>jimi 11-18-2022.mat</t>
+  </si>
+  <si>
+    <t>jimi 11-21-2022.mat</t>
+  </si>
+  <si>
+    <t>jimi 12-17-2022.mat</t>
+  </si>
+  <si>
+    <t>jimi 12-20-2022.mat</t>
+  </si>
+  <si>
+    <t>jr 01-10-2023.mat</t>
+  </si>
+  <si>
+    <t>jr 01-18-2023.mat</t>
+  </si>
+  <si>
+    <t>jr 01-31-2023.mat</t>
+  </si>
+  <si>
+    <t>jr 11-03-2022.mat</t>
+  </si>
+  <si>
+    <t>jr 11-07-2022.mat</t>
+  </si>
+  <si>
+    <t>jr 11-10-2022.mat</t>
+  </si>
+  <si>
+    <t>jr 11-15-2022.mat</t>
+  </si>
+  <si>
+    <t>jr 11-18-2022.mat</t>
+  </si>
+  <si>
+    <t>jr 11-21-2022.mat</t>
+  </si>
+  <si>
+    <t>jr 11-28-2022.mat</t>
+  </si>
+  <si>
+    <t>juana 01-04-2023.mat</t>
+  </si>
+  <si>
+    <t>juana 01-17-2023.mat</t>
+  </si>
+  <si>
+    <t>juana 01-20-2023.mat</t>
+  </si>
+  <si>
+    <t>juana 01-23-2023.mat</t>
+  </si>
+  <si>
+    <t>juana 02-01-2023.mat</t>
+  </si>
+  <si>
+    <t>juana 11-03-2022.mat</t>
+  </si>
+  <si>
+    <t>juana 11-04-2022.mat</t>
+  </si>
+  <si>
+    <t>juana 11-07-2022.mat</t>
+  </si>
+  <si>
+    <t>juana 11-10-2022.mat</t>
+  </si>
+  <si>
+    <t>juana 11-17-2022.mat</t>
+  </si>
+  <si>
+    <t>juana 11-18-2022.mat</t>
+  </si>
+  <si>
+    <t>juana 11-22-2022.mat</t>
+  </si>
+  <si>
+    <t>juana 11-28-2022.mat</t>
+  </si>
+  <si>
+    <t>juana 12-06-2022.mat</t>
+  </si>
+  <si>
+    <t>juana 12-13-2022.mat</t>
+  </si>
+  <si>
+    <t>juana 12-16-2022.mat</t>
+  </si>
+  <si>
+    <t>kobe 01-05-2023.mat</t>
+  </si>
+  <si>
+    <t>kobe 01-10-2023.mat</t>
+  </si>
+  <si>
+    <t>kobe 01-24-2023.mat</t>
+  </si>
+  <si>
+    <t>kobe 02-16-2023.mat</t>
+  </si>
+  <si>
+    <t>kobe 11-07-2022.mat</t>
+  </si>
+  <si>
+    <t>kobe 11-22-2022.mat</t>
+  </si>
+  <si>
+    <t>kobe 11-29-2022.mat</t>
+  </si>
+  <si>
+    <t>kobe 12-02-2022.mat</t>
+  </si>
+  <si>
+    <t>kobe 12-05-2022.mat</t>
+  </si>
+  <si>
+    <t>kobe 12-07-2022.mat</t>
+  </si>
+  <si>
+    <t>kobe 12-15-2022.mat</t>
+  </si>
+  <si>
+    <t>kobe 12-20-2022.mat</t>
+  </si>
+  <si>
+    <t>kryssia 01-19-2023.mat</t>
+  </si>
+  <si>
+    <t>kryssia 11-04-2022.mat</t>
+  </si>
+  <si>
+    <t>kryssia 11-11-2022.mat</t>
+  </si>
+  <si>
+    <t>kryssia 11-17-2022.mat</t>
+  </si>
+  <si>
+    <t>kryssia 11-18-2022.mat</t>
+  </si>
+  <si>
+    <t>kryssia 11-21-2022.mat</t>
+  </si>
+  <si>
+    <t>kryssia 11-22-2022.mat</t>
+  </si>
+  <si>
+    <t>kryssia 11-29-2022.mat</t>
+  </si>
+  <si>
+    <t>kryssia 12-06-2022.mat</t>
+  </si>
+  <si>
+    <t>kryssia 12-07-2022.mat</t>
+  </si>
+  <si>
+    <t>kryssia 12-16-2022.mat</t>
+  </si>
+  <si>
+    <t>kryssia 12-19-2022.mat</t>
+  </si>
+  <si>
+    <t>mike 01-12-2023.mat</t>
+  </si>
+  <si>
+    <t>mike 01-16-2023.mat</t>
+  </si>
+  <si>
+    <t>mike 01-31-2023.mat</t>
+  </si>
+  <si>
+    <t>mike 02-09-2023.mat</t>
+  </si>
+  <si>
+    <t>mike 02-16-2023.mat</t>
+  </si>
+  <si>
+    <t>mike 11-03-2022.mat</t>
+  </si>
+  <si>
+    <t>mike 11-04-2022.mat</t>
+  </si>
+  <si>
+    <t>mike 11-08-2022.mat</t>
+  </si>
+  <si>
+    <t>mike 11-15-2022.mat</t>
+  </si>
+  <si>
+    <t>mike 11-28-2022.mat</t>
+  </si>
+  <si>
+    <t>mike 11-29-2022.mat</t>
+  </si>
+  <si>
+    <t>mike 12-02-2022.mat</t>
+  </si>
+  <si>
+    <t>mike 12-05-2022.mat</t>
+  </si>
+  <si>
+    <t>mike 12-07-2022.mat</t>
+  </si>
+  <si>
+    <t>neftali 01-13-2023.mat</t>
+  </si>
+  <si>
+    <t>neftali 01-19-2023.mat</t>
+  </si>
+  <si>
+    <t>neftali 01-30-2023.mat</t>
+  </si>
+  <si>
+    <t>neftali 02-01-2023.mat</t>
+  </si>
+  <si>
+    <t>neftali 02-08-2023.mat</t>
+  </si>
+  <si>
+    <t>neftali 11-02-2022.mat</t>
+  </si>
+  <si>
+    <t>neftali 11-04-2022.mat</t>
+  </si>
+  <si>
+    <t>neftali 11-07-2022.mat</t>
+  </si>
+  <si>
+    <t>neftali 11-17-2022.mat</t>
+  </si>
+  <si>
+    <t>neftali 11-18-2022.mat</t>
+  </si>
+  <si>
+    <t>neftali 11-22-2022.mat</t>
+  </si>
+  <si>
+    <t>neftali 11-28-2022.mat</t>
+  </si>
+  <si>
+    <t>neftali 12-01-2022.mat</t>
+  </si>
+  <si>
+    <t>neftali 12-08-2022.mat</t>
+  </si>
+  <si>
+    <t>neftali 12-19-2022.mat</t>
+  </si>
+  <si>
+    <t>raven 01-19-2023.mat</t>
+  </si>
+  <si>
+    <t>raven 01-27-2023.mat</t>
+  </si>
+  <si>
+    <t>raven 02-13-2023.mat</t>
+  </si>
+  <si>
+    <t>raven 02-15-2023.mat</t>
+  </si>
+  <si>
+    <t>raven 11-03-2022.mat</t>
+  </si>
+  <si>
+    <t>raven 11-04-2022.mat</t>
+  </si>
+  <si>
+    <t>raven 11-08-2022.mat</t>
+  </si>
+  <si>
+    <t>raven 11-16-2022.mat</t>
+  </si>
+  <si>
+    <t>raven 11-17-2022.mat</t>
+  </si>
+  <si>
+    <t>raven 11-22-2022.mat</t>
+  </si>
+  <si>
+    <t>raven 12-06-2022.mat</t>
+  </si>
+  <si>
+    <t>renata 01-04-2023.mat</t>
+  </si>
+  <si>
+    <t>renata 01-13-2023.mat</t>
+  </si>
+  <si>
+    <t>renata 01-17-2023.mat</t>
+  </si>
+  <si>
+    <t>renata 11-02-2022.mat</t>
+  </si>
+  <si>
+    <t>renata 11-04-2022.mat</t>
+  </si>
+  <si>
+    <t>renata 11-07-2022.mat</t>
+  </si>
+  <si>
+    <t>renata 11-10-2022.mat</t>
+  </si>
+  <si>
+    <t>renata 11-18-2022.mat</t>
+  </si>
+  <si>
+    <t>sarah 01-13-2023.mat</t>
+  </si>
+  <si>
+    <t>sarah 01-17-2023.mat</t>
+  </si>
+  <si>
+    <t>sarah 01-19-2023.mat</t>
+  </si>
+  <si>
+    <t>sarah 01-20-2023.mat</t>
+  </si>
+  <si>
+    <t>sarah 01-27-2023.mat</t>
+  </si>
+  <si>
+    <t>sarah 02-01-2023.mat</t>
+  </si>
+  <si>
+    <t>sarah 02-08-2023.mat</t>
+  </si>
+  <si>
+    <t>sarah 11-03-2022.mat</t>
+  </si>
+  <si>
+    <t>sarah 11-04-2022.mat</t>
+  </si>
+  <si>
+    <t>sarah 11-08-2022.mat</t>
+  </si>
+  <si>
+    <t>sarah 11-09-2022.mat</t>
+  </si>
+  <si>
+    <t>sarah 11-10-2022.mat</t>
+  </si>
+  <si>
+    <t>sarah 11-16-2022.mat</t>
+  </si>
+  <si>
+    <t>sarah 11-29-2022.mat</t>
+  </si>
+  <si>
+    <t>scar 01-18-2023.mat</t>
+  </si>
+  <si>
+    <t>scar 01-24-2023.mat</t>
+  </si>
+  <si>
+    <t>scar 01-31-2023.mat</t>
+  </si>
+  <si>
+    <t>scar 02-16-2023.mat</t>
+  </si>
+  <si>
+    <t>scar 11-03-2022.mat</t>
+  </si>
+  <si>
+    <t>scar 11-07-2022.mat</t>
+  </si>
+  <si>
+    <t>scar 11-11-2022.mat</t>
+  </si>
+  <si>
+    <t>scar 11-14-2022.mat</t>
+  </si>
+  <si>
+    <t>scar 12-20-2022.mat</t>
+  </si>
+  <si>
+    <t>scar 12-22-2022.mat</t>
+  </si>
+  <si>
+    <t>shakira 01-04-2023.mat</t>
+  </si>
+  <si>
+    <t>shakira 01-20-2023.mat</t>
+  </si>
+  <si>
+    <t>shakira 02-08-2023.mat</t>
+  </si>
+  <si>
+    <t>shakira 02-15-2023.mat</t>
+  </si>
+  <si>
+    <t>shakira 11-02-2022.mat</t>
+  </si>
+  <si>
+    <t>shakira 11-08-2022.mat</t>
+  </si>
+  <si>
+    <t>shakira 11-09-2022.mat</t>
+  </si>
+  <si>
+    <t>shakira 11-11-2022.mat</t>
+  </si>
+  <si>
+    <t>shakira 11-18-2022.mat</t>
+  </si>
+  <si>
+    <t>shakira 11-21-2022.mat</t>
+  </si>
+  <si>
+    <t>shakira 11-28-2022.mat</t>
+  </si>
+  <si>
+    <t>shakira 12-06-2022.mat</t>
+  </si>
+  <si>
+    <t>simba 01-10-2023.mat</t>
+  </si>
+  <si>
+    <t>simba 01-12-2023.mat</t>
+  </si>
+  <si>
+    <t>simba 01-16-2023.mat</t>
+  </si>
+  <si>
+    <t>simba 01-18-2023.mat</t>
+  </si>
+  <si>
+    <t>simba 01-26-2023.mat</t>
+  </si>
+  <si>
+    <t>simba 02-09-2023.mat</t>
+  </si>
+  <si>
+    <t>simba 11-23-2022.mat</t>
+  </si>
+  <si>
+    <t>simba 12-05-2022.mat</t>
+  </si>
+  <si>
+    <t>simba 12-07-2022.mat</t>
+  </si>
+  <si>
+    <t>simba 12-17-2022.mat</t>
+  </si>
+  <si>
+    <t>simba 12-20-2022.mat</t>
+  </si>
+  <si>
+    <t>simba 12-22-2022.mat</t>
+  </si>
+  <si>
+    <t>sully 01-10-2023.mat</t>
+  </si>
+  <si>
+    <t>sully 01-26-2023.mat</t>
+  </si>
+  <si>
+    <t>sully 01-31-2023.mat</t>
+  </si>
+  <si>
+    <t>sully 11-04-2022.mat</t>
+  </si>
+  <si>
+    <t>sully 11-08-2022.mat</t>
+  </si>
+  <si>
+    <t>sully 11-15-2022.mat</t>
+  </si>
+  <si>
+    <t>sully 11-22-2022.mat</t>
+  </si>
+  <si>
+    <t>sully 11-23-2022.mat</t>
+  </si>
+  <si>
+    <t>sully 12-20-2022.mat</t>
   </si>
   <si>
     <t>clusterX</t>
@@ -154,12 +793,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C243"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" customWidth="true"/>
-    <col min="2" max="2" width="12.42578125" customWidth="true"/>
-    <col min="3" max="3" width="16.42578125" customWidth="true"/>
+    <col min="1" max="1" width="20.6015625" customWidth="true"/>
+    <col min="2" max="2" width="11.7109375" customWidth="true"/>
+    <col min="3" max="3" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -167,10 +806,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>30</v>
+        <v>243</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>31</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2">
@@ -178,10 +817,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>-11.631151978125486</v>
+        <v>9.0434738167624218</v>
       </c>
       <c r="C2" s="0">
-        <v>-4.3143878080822888e-06</v>
+        <v>8.7477868439992879</v>
       </c>
     </row>
     <row r="3">
@@ -189,10 +828,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>-11.631151978125486</v>
+        <v>7.6467187308151985</v>
       </c>
       <c r="C3" s="0">
-        <v>-4.3143878080822888e-06</v>
+        <v>7.299395718992673</v>
       </c>
     </row>
     <row r="4">
@@ -200,10 +839,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>-7.9343183869329232</v>
+        <v>9.0008482196354471</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.00016013121426582152</v>
+        <v>8.760009365731575</v>
       </c>
     </row>
     <row r="5">
@@ -211,10 +850,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="0">
-        <v>-8.241944183062671</v>
+        <v>8.8392781810336363</v>
       </c>
       <c r="C5" s="0">
-        <v>-0.00013916652356559127</v>
+        <v>8.30359020322528</v>
       </c>
     </row>
     <row r="6">
@@ -222,10 +861,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="0">
-        <v>-8.7723786460767261</v>
+        <v>8.6315284524776583</v>
       </c>
       <c r="C6" s="0">
-        <v>-0.00013360827891141245</v>
+        <v>7.9256928175437427</v>
       </c>
     </row>
     <row r="7">
@@ -233,10 +872,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="0">
-        <v>-8.7723786460767261</v>
+        <v>8.6315284524776583</v>
       </c>
       <c r="C7" s="0">
-        <v>-0.00013360827891141245</v>
+        <v>7.9256928175437427</v>
       </c>
     </row>
     <row r="8">
@@ -244,10 +883,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="0">
-        <v>-8.2044419023781874</v>
+        <v>9.203885889257247</v>
       </c>
       <c r="C8" s="0">
-        <v>-9.3630152384814778e-05</v>
+        <v>8.3988362275748631</v>
       </c>
     </row>
     <row r="9">
@@ -255,10 +894,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="0">
-        <v>-8.2044419023781874</v>
+        <v>8.6262998570524694</v>
       </c>
       <c r="C9" s="0">
-        <v>-9.3630152384814778e-05</v>
+        <v>7.8042886228152764</v>
       </c>
     </row>
     <row r="10">
@@ -266,10 +905,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="0">
-        <v>-8.2044419023781874</v>
+        <v>8.6262998570524694</v>
       </c>
       <c r="C10" s="0">
-        <v>-9.3630152384814778e-05</v>
+        <v>7.8042886228152764</v>
       </c>
     </row>
     <row r="11">
@@ -277,10 +916,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="0">
-        <v>-8.0889835949922908</v>
+        <v>9.5485756727316513</v>
       </c>
       <c r="C11" s="0">
-        <v>-0.00015960929436032291</v>
+        <v>8.7405912868053921</v>
       </c>
     </row>
     <row r="12">
@@ -288,10 +927,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="0">
-        <v>-8.2912603226761927</v>
+        <v>9.5464178875647399</v>
       </c>
       <c r="C12" s="0">
-        <v>-0.0001277890637380175</v>
+        <v>8.6946678334741474</v>
       </c>
     </row>
     <row r="13">
@@ -299,10 +938,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="0">
-        <v>-8.0269549361903749</v>
+        <v>8.4273751965885868</v>
       </c>
       <c r="C13" s="0">
-        <v>-0.00019390915844814675</v>
+        <v>7.86374541924756</v>
       </c>
     </row>
     <row r="14">
@@ -310,10 +949,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="0">
-        <v>-8.0778095692193812</v>
+        <v>8.4273751965885868</v>
       </c>
       <c r="C14" s="0">
-        <v>-0.00013957136867750544</v>
+        <v>7.86374541924756</v>
       </c>
     </row>
     <row r="15">
@@ -321,10 +960,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="0">
-        <v>-7.6915522663410529</v>
+        <v>9.8411297590796618</v>
       </c>
       <c r="C15" s="0">
-        <v>-0.00012968047216745159</v>
+        <v>8.9966905363866569</v>
       </c>
     </row>
     <row r="16">
@@ -332,10 +971,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="0">
-        <v>-7.6915522663410529</v>
+        <v>9.4989443013477377</v>
       </c>
       <c r="C16" s="0">
-        <v>-0.00012968047216745159</v>
+        <v>8.9338130915266198</v>
       </c>
     </row>
     <row r="17">
@@ -343,10 +982,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="0">
-        <v>-7.6915522663410529</v>
+        <v>9.6240409853924209</v>
       </c>
       <c r="C17" s="0">
-        <v>-0.00012968047216745159</v>
+        <v>8.7990440455128187</v>
       </c>
     </row>
     <row r="18">
@@ -354,10 +993,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="0">
-        <v>-8.4751700094185196</v>
+        <v>9.6240409853924209</v>
       </c>
       <c r="C18" s="0">
-        <v>-0.00016864068261600781</v>
+        <v>8.7990440455128187</v>
       </c>
     </row>
     <row r="19">
@@ -365,10 +1004,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="0">
-        <v>-8.1523937711350083</v>
+        <v>9.6240409853924209</v>
       </c>
       <c r="C19" s="0">
-        <v>-8.1188016905372673e-05</v>
+        <v>8.7990440455128187</v>
       </c>
     </row>
     <row r="20">
@@ -376,10 +1015,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="0">
-        <v>-8.3609385498889477</v>
+        <v>9.0671234894379982</v>
       </c>
       <c r="C20" s="0">
-        <v>-0.00020649656147120175</v>
+        <v>8.5784212403540288</v>
       </c>
     </row>
     <row r="21">
@@ -387,10 +1026,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="0">
-        <v>-12.337777036244132</v>
+        <v>9.5078467133114</v>
       </c>
       <c r="C21" s="0">
-        <v>-2.5921305817682754e-06</v>
+        <v>8.8732281906339789</v>
       </c>
     </row>
     <row r="22">
@@ -398,10 +1037,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="0">
-        <v>-12.337777036244132</v>
+        <v>10.097786737274536</v>
       </c>
       <c r="C22" s="0">
-        <v>-2.5921305817682754e-06</v>
+        <v>9.1146273015502146</v>
       </c>
     </row>
     <row r="23">
@@ -409,10 +1048,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="0">
-        <v>-8.8814065287361004</v>
+        <v>10.097786737274536</v>
       </c>
       <c r="C23" s="0">
-        <v>-0.00010620586740756582</v>
+        <v>9.1146273015502146</v>
       </c>
     </row>
     <row r="24">
@@ -420,10 +1059,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="0">
-        <v>-8.7805599701859194</v>
+        <v>9.1419949098272291</v>
       </c>
       <c r="C24" s="0">
-        <v>-6.4322487597843258e-05</v>
+        <v>8.4323412503729891</v>
       </c>
     </row>
     <row r="25">
@@ -431,10 +1070,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="0">
-        <v>-7.7700752893173402</v>
+        <v>9.1820443640221523</v>
       </c>
       <c r="C25" s="0">
-        <v>-0.00013475122454486687</v>
+        <v>8.6175054072769797</v>
       </c>
     </row>
     <row r="26">
@@ -442,10 +1081,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="0">
-        <v>-11.639898186216111</v>
+        <v>8.8059826586051742</v>
       </c>
       <c r="C26" s="0">
-        <v>-2.7612167803164428e-06</v>
+        <v>8.1636337327116681</v>
       </c>
     </row>
     <row r="27">
@@ -453,10 +1092,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="0">
-        <v>-8.0787609416325381</v>
+        <v>8.8059826586051742</v>
       </c>
       <c r="C27" s="0">
-        <v>-0.00017525561507871702</v>
+        <v>8.1636337327116681</v>
       </c>
     </row>
     <row r="28">
@@ -464,10 +1103,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="0">
-        <v>-8.4388066625980809</v>
+        <v>9.5369731328586873</v>
       </c>
       <c r="C28" s="0">
-        <v>-0.00014685071116490232</v>
+        <v>9.0666400527291309</v>
       </c>
     </row>
     <row r="29">
@@ -475,10 +1114,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="0">
-        <v>-8.4388066625980809</v>
+        <v>8.3594247510770625</v>
       </c>
       <c r="C29" s="0">
-        <v>-0.00014685071116490232</v>
+        <v>7.6231560588660603</v>
       </c>
     </row>
     <row r="30">
@@ -486,10 +1125,2353 @@
         <v>29</v>
       </c>
       <c r="B30" s="0">
-        <v>-12.010395137326832</v>
+        <v>7.9713129385417476</v>
       </c>
       <c r="C30" s="0">
-        <v>-6.0840978337601426e-06</v>
+        <v>7.0397980311712329</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="0">
+        <v>9.4974297889384207</v>
+      </c>
+      <c r="C31" s="0">
+        <v>8.9044066754831501</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="0">
+        <v>9.4974297889384207</v>
+      </c>
+      <c r="C32" s="0">
+        <v>8.9044066754831501</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="0">
+        <v>9.4974297889384207</v>
+      </c>
+      <c r="C33" s="0">
+        <v>8.9044066754831501</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="0">
+        <v>8.816278934659346</v>
+      </c>
+      <c r="C34" s="0">
+        <v>8.1909337333419607</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="0">
+        <v>8.816278934659346</v>
+      </c>
+      <c r="C35" s="0">
+        <v>8.1909337333419607</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="0">
+        <v>8.4835110023595348</v>
+      </c>
+      <c r="C36" s="0">
+        <v>7.6989005721362638</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="0">
+        <v>9.8568848974673688</v>
+      </c>
+      <c r="C37" s="0">
+        <v>8.90494298678753</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="0">
+        <v>9.8457850563649938</v>
+      </c>
+      <c r="C38" s="0">
+        <v>9.4621397445490771</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="0">
+        <v>7.9132598183844642</v>
+      </c>
+      <c r="C39" s="0">
+        <v>7.147562215627266</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="0">
+        <v>10.287303629095041</v>
+      </c>
+      <c r="C40" s="0">
+        <v>9.0818915756002401</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="0">
+        <v>10.288119933169591</v>
+      </c>
+      <c r="C41" s="0">
+        <v>9.0916958961846728</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="0">
+        <v>10.289884422770381</v>
+      </c>
+      <c r="C42" s="0">
+        <v>9.084684032869335</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="0">
+        <v>10.289884422770381</v>
+      </c>
+      <c r="C43" s="0">
+        <v>9.084684032869335</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="0">
+        <v>9.8919142851524295</v>
+      </c>
+      <c r="C44" s="0">
+        <v>8.7176167609777924</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="0">
+        <v>10.293755241542863</v>
+      </c>
+      <c r="C45" s="0">
+        <v>8.9701763261992902</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="0">
+        <v>10.293755241542863</v>
+      </c>
+      <c r="C46" s="0">
+        <v>8.9701763261992902</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="0">
+        <v>10.293755241542863</v>
+      </c>
+      <c r="C47" s="0">
+        <v>8.9701763261992902</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="0">
+        <v>10.293755241542863</v>
+      </c>
+      <c r="C48" s="0">
+        <v>8.9701763261992902</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" s="0">
+        <v>8.6553416914645709</v>
+      </c>
+      <c r="C49" s="0">
+        <v>8.0060204832702198</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" s="0">
+        <v>6.9411749937577092</v>
+      </c>
+      <c r="C50" s="0">
+        <v>6.1122424245618916</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" s="0">
+        <v>9.5470857140752177</v>
+      </c>
+      <c r="C51" s="0">
+        <v>8.7215472531679747</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" s="0">
+        <v>9.5470857140752177</v>
+      </c>
+      <c r="C52" s="0">
+        <v>8.7215472531679747</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" s="0">
+        <v>9.5470857140752177</v>
+      </c>
+      <c r="C53" s="0">
+        <v>8.7215472531679747</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" s="0">
+        <v>8.9937590524644673</v>
+      </c>
+      <c r="C54" s="0">
+        <v>8.2811010390200064</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" s="0">
+        <v>9.1313975202970621</v>
+      </c>
+      <c r="C55" s="0">
+        <v>8.4341803839885188</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" s="0">
+        <v>9.1313975202970621</v>
+      </c>
+      <c r="C56" s="0">
+        <v>8.4341803839885188</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" s="0">
+        <v>9.1392325396924878</v>
+      </c>
+      <c r="C57" s="0">
+        <v>8.3583232279327149</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" s="0">
+        <v>9.8727836095774624</v>
+      </c>
+      <c r="C58" s="0">
+        <v>8.778174052417171</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" s="0">
+        <v>9.8609855846723171</v>
+      </c>
+      <c r="C59" s="0">
+        <v>8.8819653437903039</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" s="0">
+        <v>9.5793037697024488</v>
+      </c>
+      <c r="C60" s="0">
+        <v>8.5597110734577466</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" s="0">
+        <v>9.5235294410728599</v>
+      </c>
+      <c r="C61" s="0">
+        <v>8.8354035751399174</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" s="0">
+        <v>9.5319285372797058</v>
+      </c>
+      <c r="C62" s="0">
+        <v>8.7965887571553001</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" s="0">
+        <v>9.0676850337381829</v>
+      </c>
+      <c r="C63" s="0">
+        <v>8.3989503582610574</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" s="0">
+        <v>9.0057324785439601</v>
+      </c>
+      <c r="C64" s="0">
+        <v>8.7342424371042142</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" s="0">
+        <v>9.5247214304514394</v>
+      </c>
+      <c r="C65" s="0">
+        <v>8.7942530711433982</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" s="0">
+        <v>9.5247214304514394</v>
+      </c>
+      <c r="C66" s="0">
+        <v>8.7942530711433982</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" s="0">
+        <v>9.5247214304514394</v>
+      </c>
+      <c r="C67" s="0">
+        <v>8.7942530711433982</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" s="0">
+        <v>8.1785346241614647</v>
+      </c>
+      <c r="C68" s="0">
+        <v>7.7272843953248156</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" s="0">
+        <v>9.4539086730152082</v>
+      </c>
+      <c r="C69" s="0">
+        <v>9.0396897568974861</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" s="0">
+        <v>9.551927745383006</v>
+      </c>
+      <c r="C70" s="0">
+        <v>8.7102298432743748</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" s="0">
+        <v>9.116549875366518</v>
+      </c>
+      <c r="C71" s="0">
+        <v>8.4212064970667697</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" s="0">
+        <v>9.0989592849300927</v>
+      </c>
+      <c r="C72" s="0">
+        <v>8.4868407188690469</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73" s="0">
+        <v>10.26816823000831</v>
+      </c>
+      <c r="C73" s="0">
+        <v>9.2826452960857271</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" s="0">
+        <v>9.3931915487844471</v>
+      </c>
+      <c r="C74" s="0">
+        <v>9.1679532071965664</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" s="0">
+        <v>9.5483795403487992</v>
+      </c>
+      <c r="C75" s="0">
+        <v>8.7140256108620946</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" s="0">
+        <v>7.1991170829013971</v>
+      </c>
+      <c r="C76" s="0">
+        <v>6.6218037398555669</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" s="0">
+        <v>9.5504281343539148</v>
+      </c>
+      <c r="C77" s="0">
+        <v>8.7233536310801227</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" s="0">
+        <v>9.0099530927058709</v>
+      </c>
+      <c r="C78" s="0">
+        <v>8.4604657910697227</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" s="0">
+        <v>9.0099530927058709</v>
+      </c>
+      <c r="C79" s="0">
+        <v>8.4604657910697227</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80" s="0">
+        <v>7.6260291338162762</v>
+      </c>
+      <c r="C80" s="0">
+        <v>7.3457150993118621</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81" s="0">
+        <v>9.1121474912445084</v>
+      </c>
+      <c r="C81" s="0">
+        <v>8.4667678302708325</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82" s="0">
+        <v>9.5105003536342601</v>
+      </c>
+      <c r="C82" s="0">
+        <v>8.857036893709811</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83" s="0">
+        <v>7.8840992503106957</v>
+      </c>
+      <c r="C83" s="0">
+        <v>6.9917664863117439</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84" s="0">
+        <v>9.8685530649855924</v>
+      </c>
+      <c r="C84" s="0">
+        <v>8.7977843764454668</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85" s="0">
+        <v>7.9563089779399743</v>
+      </c>
+      <c r="C85" s="0">
+        <v>7.2175595420147776</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B86" s="0">
+        <v>8.8347053162678719</v>
+      </c>
+      <c r="C86" s="0">
+        <v>8.3066567392491262</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B87" s="0">
+        <v>9.0510015840532958</v>
+      </c>
+      <c r="C87" s="0">
+        <v>8.5016868832081904</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B88" s="0">
+        <v>9.5316820971398997</v>
+      </c>
+      <c r="C88" s="0">
+        <v>8.6995558732169354</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B89" s="0">
+        <v>9.553605217589487</v>
+      </c>
+      <c r="C89" s="0">
+        <v>8.64640235489159</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B90" s="0">
+        <v>7.833360782519164</v>
+      </c>
+      <c r="C90" s="0">
+        <v>7.2362184396434426</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B91" s="0">
+        <v>9.5648823584568383</v>
+      </c>
+      <c r="C91" s="0">
+        <v>8.6449498250805537</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B92" s="0">
+        <v>9.128920508578414</v>
+      </c>
+      <c r="C92" s="0">
+        <v>8.3848531272071973</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B93" s="0">
+        <v>9.128920508578414</v>
+      </c>
+      <c r="C93" s="0">
+        <v>8.3848531272071973</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B94" s="0">
+        <v>7.8837153562094677</v>
+      </c>
+      <c r="C94" s="0">
+        <v>7.0289667738245765</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B95" s="0">
+        <v>9.0844772221090295</v>
+      </c>
+      <c r="C95" s="0">
+        <v>8.5466812062260828</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="B96" s="0">
+        <v>9.8677180105797131</v>
+      </c>
+      <c r="C96" s="0">
+        <v>8.9156160169940257</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B97" s="0">
+        <v>9.8677180105797131</v>
+      </c>
+      <c r="C97" s="0">
+        <v>8.9156160169940257</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B98" s="0">
+        <v>9.8605008479430118</v>
+      </c>
+      <c r="C98" s="0">
+        <v>8.8732995454553372</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B99" s="0">
+        <v>9.1969873454206787</v>
+      </c>
+      <c r="C99" s="0">
+        <v>8.1519033037294975</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B100" s="0">
+        <v>9.1969873454206787</v>
+      </c>
+      <c r="C100" s="0">
+        <v>8.1519033037294975</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B101" s="0">
+        <v>9.9021467899527522</v>
+      </c>
+      <c r="C101" s="0">
+        <v>8.8251303457283505</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B102" s="0">
+        <v>7.9103869003537621</v>
+      </c>
+      <c r="C102" s="0">
+        <v>6.8853984037023972</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B103" s="0">
+        <v>9.8708157881320737</v>
+      </c>
+      <c r="C103" s="0">
+        <v>8.7769676519340667</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="B104" s="0">
+        <v>9.8708157881320737</v>
+      </c>
+      <c r="C104" s="0">
+        <v>8.7769676519340667</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B105" s="0">
+        <v>10.29046971735441</v>
+      </c>
+      <c r="C105" s="0">
+        <v>9.0867903171488216</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="B106" s="0">
+        <v>10.29046971735441</v>
+      </c>
+      <c r="C106" s="0">
+        <v>9.0867903171488216</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="B107" s="0">
+        <v>10.107852639773416</v>
+      </c>
+      <c r="C107" s="0">
+        <v>8.7235432444454926</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B108" s="0">
+        <v>10.289104152632246</v>
+      </c>
+      <c r="C108" s="0">
+        <v>9.0680904022623441</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B109" s="0">
+        <v>9.8608516473279977</v>
+      </c>
+      <c r="C109" s="0">
+        <v>8.8885880137294908</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="B110" s="0">
+        <v>9.868716080300965</v>
+      </c>
+      <c r="C110" s="0">
+        <v>8.7919857091307936</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B111" s="0">
+        <v>9.8720068294237695</v>
+      </c>
+      <c r="C111" s="0">
+        <v>8.7629530491934347</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="B112" s="0">
+        <v>8.521414557289825</v>
+      </c>
+      <c r="C112" s="0">
+        <v>7.8768908973482867</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B113" s="0">
+        <v>9.5638789279139278</v>
+      </c>
+      <c r="C113" s="0">
+        <v>8.6471819528869762</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B114" s="0">
+        <v>10.27890033034077</v>
+      </c>
+      <c r="C114" s="0">
+        <v>9.1302845623624407</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B115" s="0">
+        <v>10.27890033034077</v>
+      </c>
+      <c r="C115" s="0">
+        <v>9.1302845623624407</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="B116" s="0">
+        <v>8.9647338166152988</v>
+      </c>
+      <c r="C116" s="0">
+        <v>8.7739995352960793</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="B117" s="0">
+        <v>8.9647338166152988</v>
+      </c>
+      <c r="C117" s="0">
+        <v>8.7739995352960793</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B118" s="0">
+        <v>9.5549348049686422</v>
+      </c>
+      <c r="C118" s="0">
+        <v>8.7489099151777925</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="B119" s="0">
+        <v>8.5263153751859146</v>
+      </c>
+      <c r="C119" s="0">
+        <v>7.8106084745779896</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="B120" s="0">
+        <v>8.5263153751859146</v>
+      </c>
+      <c r="C120" s="0">
+        <v>7.8106084745779896</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B121" s="0">
+        <v>9.5182895009023962</v>
+      </c>
+      <c r="C121" s="0">
+        <v>8.8256456565402264</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B122" s="0">
+        <v>9.5182895009023962</v>
+      </c>
+      <c r="C122" s="0">
+        <v>8.8256456565402264</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B123" s="0">
+        <v>9.105552944537278</v>
+      </c>
+      <c r="C123" s="0">
+        <v>8.4391852848194606</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="B124" s="0">
+        <v>9.5374508068992547</v>
+      </c>
+      <c r="C124" s="0">
+        <v>8.7712696586380456</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B125" s="0">
+        <v>8.9942930269086556</v>
+      </c>
+      <c r="C125" s="0">
+        <v>8.7306152494591185</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B126" s="0">
+        <v>9.0773537561468807</v>
+      </c>
+      <c r="C126" s="0">
+        <v>8.6144005719660832</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="B127" s="0">
+        <v>8.3756971421755679</v>
+      </c>
+      <c r="C127" s="0">
+        <v>7.9355340715669493</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B128" s="0">
+        <v>9.2259957572150384</v>
+      </c>
+      <c r="C128" s="0">
+        <v>7.9795794551358421</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B129" s="0">
+        <v>9.9130299551267349</v>
+      </c>
+      <c r="C129" s="0">
+        <v>8.5292338244086672</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B130" s="0">
+        <v>9.8249769280849097</v>
+      </c>
+      <c r="C130" s="0">
+        <v>9.0961849508663022</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B131" s="0">
+        <v>9.8249769280849097</v>
+      </c>
+      <c r="C131" s="0">
+        <v>9.0961849508663022</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B132" s="0">
+        <v>10.291385862483221</v>
+      </c>
+      <c r="C132" s="0">
+        <v>8.918209307462126</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B133" s="0">
+        <v>10.291385862483221</v>
+      </c>
+      <c r="C133" s="0">
+        <v>8.918209307462126</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="B134" s="0">
+        <v>9.9161199057473048</v>
+      </c>
+      <c r="C134" s="0">
+        <v>8.7046516335818218</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="B135" s="0">
+        <v>9.7864731058918064</v>
+      </c>
+      <c r="C135" s="0">
+        <v>9.1970119855880679</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="B136" s="0">
+        <v>9.2276462617372186</v>
+      </c>
+      <c r="C136" s="0">
+        <v>8.4568743903807828</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B137" s="0">
+        <v>9.2276462617372186</v>
+      </c>
+      <c r="C137" s="0">
+        <v>8.4568743903807828</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="B138" s="0">
+        <v>10.021584350275482</v>
+      </c>
+      <c r="C138" s="0">
+        <v>9.1063185069632997</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="B139" s="0">
+        <v>7.0507160184553559</v>
+      </c>
+      <c r="C139" s="0">
+        <v>6.5301406439208041</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B140" s="0">
+        <v>7.0507160184553559</v>
+      </c>
+      <c r="C140" s="0">
+        <v>6.5301406439208041</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="B141" s="0">
+        <v>8.9283949975281853</v>
+      </c>
+      <c r="C141" s="0">
+        <v>8.1922389540150089</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="B142" s="0">
+        <v>8.9283949975281853</v>
+      </c>
+      <c r="C142" s="0">
+        <v>8.1922389540150089</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="B143" s="0">
+        <v>8.9283949975281853</v>
+      </c>
+      <c r="C143" s="0">
+        <v>8.1922389540150089</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="B144" s="0">
+        <v>8.9283949975281853</v>
+      </c>
+      <c r="C144" s="0">
+        <v>8.1922389540150089</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B145" s="0">
+        <v>9.1079622421247119</v>
+      </c>
+      <c r="C145" s="0">
+        <v>8.405819616573373</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="B146" s="0">
+        <v>9.1079622421247119</v>
+      </c>
+      <c r="C146" s="0">
+        <v>8.405819616573373</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="B147" s="0">
+        <v>8.3842787825845075</v>
+      </c>
+      <c r="C147" s="0">
+        <v>7.85328757255418</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="B148" s="0">
+        <v>9.7637537840067292</v>
+      </c>
+      <c r="C148" s="0">
+        <v>9.3150521231761143</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="B149" s="0">
+        <v>9.7637537840067292</v>
+      </c>
+      <c r="C149" s="0">
+        <v>9.3150521231761143</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="B150" s="0">
+        <v>9.6273820730494588</v>
+      </c>
+      <c r="C150" s="0">
+        <v>8.8247078017531901</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="B151" s="0">
+        <v>9.0574714836253705</v>
+      </c>
+      <c r="C151" s="0">
+        <v>8.6035270961355526</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="B152" s="0">
+        <v>9.1212292043579577</v>
+      </c>
+      <c r="C152" s="0">
+        <v>8.5559432131200719</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="B153" s="0">
+        <v>10.28628621889972</v>
+      </c>
+      <c r="C153" s="0">
+        <v>9.1141359116688143</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="B154" s="0">
+        <v>9.8508640632422164</v>
+      </c>
+      <c r="C154" s="0">
+        <v>8.9007039705166502</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="B155" s="0">
+        <v>9.988041910980419</v>
+      </c>
+      <c r="C155" s="0">
+        <v>8.901361198287157</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="B156" s="0">
+        <v>9.988041910980419</v>
+      </c>
+      <c r="C156" s="0">
+        <v>8.901361198287157</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="B157" s="0">
+        <v>9.988041910980419</v>
+      </c>
+      <c r="C157" s="0">
+        <v>8.901361198287157</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="B158" s="0">
+        <v>8.5264726887186555</v>
+      </c>
+      <c r="C158" s="0">
+        <v>7.5970656172419666</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="B159" s="0">
+        <v>10.294009602958271</v>
+      </c>
+      <c r="C159" s="0">
+        <v>9.0028700583756471</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B160" s="0">
+        <v>9.5663003950859906</v>
+      </c>
+      <c r="C160" s="0">
+        <v>8.6234411808873155</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="B161" s="0">
+        <v>9.5663003950859906</v>
+      </c>
+      <c r="C161" s="0">
+        <v>8.6234411808873155</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="B162" s="0">
+        <v>9.5663003950859906</v>
+      </c>
+      <c r="C162" s="0">
+        <v>8.6234411808873155</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="B163" s="0">
+        <v>10.371517105966431</v>
+      </c>
+      <c r="C163" s="0">
+        <v>9.1376743102716951</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="B164" s="0">
+        <v>10.597008782218534</v>
+      </c>
+      <c r="C164" s="0">
+        <v>9.0861861185621162</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="B165" s="0">
+        <v>9.8814010230266796</v>
+      </c>
+      <c r="C165" s="0">
+        <v>8.7163104445919455</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="B166" s="0">
+        <v>9.8814010230266796</v>
+      </c>
+      <c r="C166" s="0">
+        <v>8.7163104445919455</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="B167" s="0">
+        <v>9.1888306631696484</v>
+      </c>
+      <c r="C167" s="0">
+        <v>8.0259919397969295</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="B168" s="0">
+        <v>9.3808694287365206</v>
+      </c>
+      <c r="C168" s="0">
+        <v>8.6654018624169353</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="B169" s="0">
+        <v>7.1231399815482463</v>
+      </c>
+      <c r="C169" s="0">
+        <v>5.9998437927916406</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="B170" s="0">
+        <v>10.285667609675825</v>
+      </c>
+      <c r="C170" s="0">
+        <v>9.1367037692748134</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="B171" s="0">
+        <v>10.285667609675825</v>
+      </c>
+      <c r="C171" s="0">
+        <v>9.1367037692748134</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="B172" s="0">
+        <v>9.2528210586690403</v>
+      </c>
+      <c r="C172" s="0">
+        <v>8.5131135439066288</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B173" s="0">
+        <v>7.0222379447783299</v>
+      </c>
+      <c r="C173" s="0">
+        <v>6.3049956193017245</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B174" s="0">
+        <v>9.1190435636015614</v>
+      </c>
+      <c r="C174" s="0">
+        <v>8.4400551087732634</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="B175" s="0">
+        <v>9.0997516845360238</v>
+      </c>
+      <c r="C175" s="0">
+        <v>7.8778897156927581</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B176" s="0">
+        <v>9.2072102375868337</v>
+      </c>
+      <c r="C176" s="0">
+        <v>7.9970150988172168</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="B177" s="0">
+        <v>9.1541182384196826</v>
+      </c>
+      <c r="C177" s="0">
+        <v>7.9810948034061493</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B178" s="0">
+        <v>9.6107020742854505</v>
+      </c>
+      <c r="C178" s="0">
+        <v>8.6309234868876121</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B179" s="0">
+        <v>8.6977319088142355</v>
+      </c>
+      <c r="C179" s="0">
+        <v>8.4528901282117221</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="B180" s="0">
+        <v>9.5554759399121618</v>
+      </c>
+      <c r="C180" s="0">
+        <v>8.675384834522573</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="B181" s="0">
+        <v>9.0311685979038092</v>
+      </c>
+      <c r="C181" s="0">
+        <v>8.6625002985466431</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="B182" s="0">
+        <v>9.1050940771514952</v>
+      </c>
+      <c r="C182" s="0">
+        <v>8.4999388147310739</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="B183" s="0">
+        <v>9.5754444327922421</v>
+      </c>
+      <c r="C183" s="0">
+        <v>8.5633934230705027</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="B184" s="0">
+        <v>9.432641711730696</v>
+      </c>
+      <c r="C184" s="0">
+        <v>9.0917197568137151</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="B185" s="0">
+        <v>9.432641711730696</v>
+      </c>
+      <c r="C185" s="0">
+        <v>9.0917197568137151</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="B186" s="0">
+        <v>8.4066615023765188</v>
+      </c>
+      <c r="C186" s="0">
+        <v>7.8195246287128741</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="B187" s="0">
+        <v>8.8725292218135081</v>
+      </c>
+      <c r="C187" s="0">
+        <v>8.5207749514568505</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="B188" s="0">
+        <v>9.4919012035675898</v>
+      </c>
+      <c r="C188" s="0">
+        <v>9.0068935514248736</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="B189" s="0">
+        <v>9.4919012035675898</v>
+      </c>
+      <c r="C189" s="0">
+        <v>9.0068935514248736</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="B190" s="0">
+        <v>9.4573200596200397</v>
+      </c>
+      <c r="C190" s="0">
+        <v>9.061023215794485</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="B191" s="0">
+        <v>9.5204402841704798</v>
+      </c>
+      <c r="C191" s="0">
+        <v>8.8452208749330605</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="B192" s="0">
+        <v>9.1152357583718704</v>
+      </c>
+      <c r="C192" s="0">
+        <v>8.7397205142746799</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="B193" s="0">
+        <v>9.1152357583718704</v>
+      </c>
+      <c r="C193" s="0">
+        <v>8.7397205142746799</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="B194" s="0">
+        <v>9.7824722836448146</v>
+      </c>
+      <c r="C194" s="0">
+        <v>9.2376656662504697</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="B195" s="0">
+        <v>9.4035233980594732</v>
+      </c>
+      <c r="C195" s="0">
+        <v>8.6823448073817335</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="B196" s="0">
+        <v>9.9025535471904576</v>
+      </c>
+      <c r="C196" s="0">
+        <v>9.3214521092393205</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="B197" s="0">
+        <v>9.9025535471904576</v>
+      </c>
+      <c r="C197" s="0">
+        <v>9.3214521092393205</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="B198" s="0">
+        <v>9.7786402124202798</v>
+      </c>
+      <c r="C198" s="0">
+        <v>9.2399837822883057</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="B199" s="0">
+        <v>9.492749515012429</v>
+      </c>
+      <c r="C199" s="0">
+        <v>8.9770341902089204</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="B200" s="0">
+        <v>9.5529656519492292</v>
+      </c>
+      <c r="C200" s="0">
+        <v>8.6514383387799736</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="B201" s="0">
+        <v>8.5113002773787887</v>
+      </c>
+      <c r="C201" s="0">
+        <v>7.7129519192949232</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="B202" s="0">
+        <v>9.1111506639561011</v>
+      </c>
+      <c r="C202" s="0">
+        <v>8.6520709053014038</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="B203" s="0">
+        <v>9.4942324291619382</v>
+      </c>
+      <c r="C203" s="0">
+        <v>8.9451781918000854</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="B204" s="0">
+        <v>9.590853440150191</v>
+      </c>
+      <c r="C204" s="0">
+        <v>8.759583700147207</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="B205" s="0">
+        <v>9.8089322490346689</v>
+      </c>
+      <c r="C205" s="0">
+        <v>9.2826719163284857</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B206" s="0">
+        <v>9.8064551471918371</v>
+      </c>
+      <c r="C206" s="0">
+        <v>9.1441201278054862</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B207" s="0">
+        <v>7.149688551626566</v>
+      </c>
+      <c r="C207" s="0">
+        <v>6.2777849338915379</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="B208" s="0">
+        <v>9.9505793382346823</v>
+      </c>
+      <c r="C208" s="0">
+        <v>9.1568263116507964</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="B209" s="0">
+        <v>9.1034001362546171</v>
+      </c>
+      <c r="C209" s="0">
+        <v>8.5088277336460951</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="B210" s="0">
+        <v>9.0910122789178391</v>
+      </c>
+      <c r="C210" s="0">
+        <v>8.5404040073349918</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="B211" s="0">
+        <v>9.0920504147339276</v>
+      </c>
+      <c r="C211" s="0">
+        <v>8.5296401590158979</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="B212" s="0">
+        <v>9.4509536582078848</v>
+      </c>
+      <c r="C212" s="0">
+        <v>9.0311727112550457</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="B213" s="0">
+        <v>9.4357892750835966</v>
+      </c>
+      <c r="C213" s="0">
+        <v>9.1924758373650288</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="B214" s="0">
+        <v>9.4357892750835966</v>
+      </c>
+      <c r="C214" s="0">
+        <v>9.1924758373650288</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="B215" s="0">
+        <v>8.4737245328902056</v>
+      </c>
+      <c r="C215" s="0">
+        <v>8.2023250892069566</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="B216" s="0">
+        <v>8.8439210699232955</v>
+      </c>
+      <c r="C216" s="0">
+        <v>8.3310142951223636</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="B217" s="0">
+        <v>8.8439210699232955</v>
+      </c>
+      <c r="C217" s="0">
+        <v>8.3310142951223636</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="B218" s="0">
+        <v>8.8449303499987355</v>
+      </c>
+      <c r="C218" s="0">
+        <v>8.4159692596732434</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="B219" s="0">
+        <v>8.8449303499987355</v>
+      </c>
+      <c r="C219" s="0">
+        <v>8.4159692596732434</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="B220" s="0">
+        <v>9.5773093475805506</v>
+      </c>
+      <c r="C220" s="0">
+        <v>8.8213068924633493</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="B221" s="0">
+        <v>9.8329370602314459</v>
+      </c>
+      <c r="C221" s="0">
+        <v>9.050469508329666</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="B222" s="0">
+        <v>9.4465347144909906</v>
+      </c>
+      <c r="C222" s="0">
+        <v>9.0668133069920582</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="B223" s="0">
+        <v>9.2207106998225594</v>
+      </c>
+      <c r="C223" s="0">
+        <v>9.2594483645177412</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="B224" s="0">
+        <v>8.982971935418961</v>
+      </c>
+      <c r="C224" s="0">
+        <v>8.8314877176758539</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="B225" s="0">
+        <v>9.4467467684873014</v>
+      </c>
+      <c r="C225" s="0">
+        <v>9.0443555606350383</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="B226" s="0">
+        <v>8.9721815142347658</v>
+      </c>
+      <c r="C226" s="0">
+        <v>8.8515163450761083</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="B227" s="0">
+        <v>9.3994680056689965</v>
+      </c>
+      <c r="C227" s="0">
+        <v>9.0303971373010334</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="B228" s="0">
+        <v>9.7611522272581723</v>
+      </c>
+      <c r="C228" s="0">
+        <v>9.3749779722952677</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B229" s="0">
+        <v>9.4482975418378388</v>
+      </c>
+      <c r="C229" s="0">
+        <v>9.0457518555780485</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="B230" s="0">
+        <v>9.4482975418378388</v>
+      </c>
+      <c r="C230" s="0">
+        <v>9.0457518555780485</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="B231" s="0">
+        <v>9.2242466346939516</v>
+      </c>
+      <c r="C231" s="0">
+        <v>8.9614582693626996</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="B232" s="0">
+        <v>8.9712461592758732</v>
+      </c>
+      <c r="C232" s="0">
+        <v>8.7883987393001064</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="B233" s="0">
+        <v>8.9712461592758732</v>
+      </c>
+      <c r="C233" s="0">
+        <v>8.7883987393001064</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="B234" s="0">
+        <v>9.3481922603992302</v>
+      </c>
+      <c r="C234" s="0">
+        <v>9.3977935096169904</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="B235" s="0">
+        <v>8.9351338800312448</v>
+      </c>
+      <c r="C235" s="0">
+        <v>8.832401805298332</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="B236" s="0">
+        <v>8.9351338800312448</v>
+      </c>
+      <c r="C236" s="0">
+        <v>8.832401805298332</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="B237" s="0">
+        <v>8.394546879150095</v>
+      </c>
+      <c r="C237" s="0">
+        <v>7.9172756684396175</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="B238" s="0">
+        <v>7.0902817165826706</v>
+      </c>
+      <c r="C238" s="0">
+        <v>6.5401343530017622</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="B239" s="0">
+        <v>8.9029916002226042</v>
+      </c>
+      <c r="C239" s="0">
+        <v>8.3124874046529804</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="B240" s="0">
+        <v>9.0572724508904798</v>
+      </c>
+      <c r="C240" s="0">
+        <v>8.6063340852306762</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="B241" s="0">
+        <v>8.3039796757501794</v>
+      </c>
+      <c r="C241" s="0">
+        <v>8.0136629991524639</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="B242" s="0">
+        <v>8.4138005095370758</v>
+      </c>
+      <c r="C242" s="0">
+        <v>7.9057695619757187</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="B243" s="0">
+        <v>8.2596098333762296</v>
+      </c>
+      <c r="C243" s="0">
+        <v>7.7586575300882394</v>
       </c>
     </row>
   </sheetData>
